--- a/POPC/MATRIX/Speedup_Efficiency.xlsx
+++ b/POPC/MATRIX/Speedup_Efficiency.xlsx
@@ -7011,8 +7011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="L93" sqref="L93"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/POPC/MATRIX/Speedup_Efficiency.xlsx
+++ b/POPC/MATRIX/Speedup_Efficiency.xlsx
@@ -7011,8 +7011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
